--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_003_BrokenMarkets/1CraftbetRugby League_1_DataErrorMarketsList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_003_BrokenMarkets/1CraftbetRugby League_1_DataErrorMarketsList.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>1  This market works for Client  GameID = 3912241  MarketName = Match Result  MarketID = 231786738  SelectorError = 0.06049228201919066</t>
+    <t>1  This market works for Client  GameID = 3912241  MarketName = Match Result  MarketID = 231786738  SelectorError = 0.05901244480128462</t>
   </si>
 </sst>
 </file>
